--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_47.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_47.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9932936503227388</v>
+        <v>0.8539957701229163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8002265909205747</v>
+        <v>0.6205010962023551</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7824422031127443</v>
+        <v>0.7439810619926335</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9899527407381006</v>
+        <v>0.8227085572659373</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02791535956989553</v>
+        <v>0.3460581503561149</v>
       </c>
       <c r="G2" t="n">
-        <v>1.335885706386083</v>
+        <v>2.537710917126627</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7781916247398535</v>
+        <v>0.9157648964213938</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01671943833785267</v>
+        <v>0.3665536708758622</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2623855335310299</v>
+        <v>1.103016153743688</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1670789022285445</v>
+        <v>0.5882670740030542</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42920637934472</v>
+        <v>0.8011857295290775</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1697102279210164</v>
+        <v>0.5975316923672694</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1571564388362</v>
+        <v>36.12229690686528</v>
       </c>
       <c r="O2" t="n">
-        <v>278.4923289820526</v>
+        <v>73.08688049509109</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9931978551277701</v>
+        <v>0.8538936845835572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8000598492036421</v>
+        <v>0.6201368529429538</v>
       </c>
       <c r="D3" t="n">
-        <v>0.782156852905197</v>
+        <v>0.7437638844573704</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9902826499405875</v>
+        <v>0.8245340707666335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02831410962638064</v>
+        <v>0.3463001127496594</v>
       </c>
       <c r="G3" t="n">
-        <v>1.337000709014986</v>
+        <v>2.540146613479429</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7792123058866942</v>
+        <v>0.9165417278723527</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01617044319158572</v>
+        <v>0.362779384511024</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2628696230352375</v>
+        <v>1.092066783646503</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1682679696982781</v>
+        <v>0.5884726949907357</v>
       </c>
       <c r="L3" t="n">
-        <v>1.435337271822711</v>
+        <v>0.8010467194329289</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1709180220147669</v>
+        <v>0.5977405516799613</v>
       </c>
       <c r="N3" t="n">
-        <v>137.128790050418</v>
+        <v>36.12089900398009</v>
       </c>
       <c r="O3" t="n">
-        <v>278.4639625936344</v>
+        <v>73.08548259220591</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.993098669827603</v>
+        <v>0.853781701084683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7998714664697271</v>
+        <v>0.6197700112010482</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7818475915070824</v>
+        <v>0.7435468900067186</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9906293353679292</v>
+        <v>0.8263512500341197</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02872697108625984</v>
+        <v>0.3465655352139499</v>
       </c>
       <c r="G4" t="n">
-        <v>1.338260425224099</v>
+        <v>2.542599685896702</v>
       </c>
       <c r="H4" t="n">
-        <v>0.780318515975744</v>
+        <v>0.9173179044402731</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01559353107316807</v>
+        <v>0.3590223293431912</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2631150545353484</v>
+        <v>1.080839321037419</v>
       </c>
       <c r="K4" t="n">
-        <v>0.169490327412097</v>
+        <v>0.5886981698748094</v>
       </c>
       <c r="L4" t="n">
-        <v>1.44168513103341</v>
+        <v>0.8008942312642492</v>
       </c>
       <c r="M4" t="n">
-        <v>0.172159630640669</v>
+        <v>0.597969577568067</v>
       </c>
       <c r="N4" t="n">
-        <v>137.0998376768211</v>
+        <v>36.11936668683864</v>
       </c>
       <c r="O4" t="n">
-        <v>278.4350102200376</v>
+        <v>73.08395027506447</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9929955089204314</v>
+        <v>0.8536591839281867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7996788535312768</v>
+        <v>0.6194003336937633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.781543669500308</v>
+        <v>0.7433298103146215</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9909223634055605</v>
+        <v>0.828158430617865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02915638111643081</v>
+        <v>0.3468559244759575</v>
       </c>
       <c r="G5" t="n">
-        <v>1.339548428830417</v>
+        <v>2.545071721090125</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7814056273715657</v>
+        <v>0.9180943859119004</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01510590911789347</v>
+        <v>0.3552859466577556</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2638402208766124</v>
+        <v>1.069340931247341</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1707523971030299</v>
+        <v>0.5889447550288206</v>
       </c>
       <c r="L5" t="n">
-        <v>1.448287429092389</v>
+        <v>0.8007273993915734</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1734415766676272</v>
+        <v>0.5982200461917592</v>
       </c>
       <c r="N5" t="n">
-        <v>137.0701629678361</v>
+        <v>36.11769157699065</v>
       </c>
       <c r="O5" t="n">
-        <v>278.4053355110526</v>
+        <v>73.08227516521647</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9926586305460053</v>
+        <v>0.8535256128041858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7990639518538769</v>
+        <v>0.6190275166459022</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7806340102758688</v>
+        <v>0.7431119437510916</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9917315900542431</v>
+        <v>0.8299534196207798</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03055864634356478</v>
+        <v>0.3471725137703339</v>
       </c>
       <c r="G6" t="n">
-        <v>1.343660279178552</v>
+        <v>2.547564750405837</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7846594256723124</v>
+        <v>0.9188736819770178</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01375929162736031</v>
+        <v>0.3515747703141393</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2660736325303781</v>
+        <v>1.057596596422367</v>
       </c>
       <c r="K6" t="n">
-        <v>0.174810315323681</v>
+        <v>0.5892134704589959</v>
       </c>
       <c r="L6" t="n">
-        <v>1.469847645055658</v>
+        <v>0.8005455153078275</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1775634030438236</v>
+        <v>0.5984929936213428</v>
       </c>
       <c r="N6" t="n">
-        <v>136.9762152214106</v>
+        <v>36.11586692947542</v>
       </c>
       <c r="O6" t="n">
-        <v>278.311387764627</v>
+        <v>73.08045051770125</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9925444560422342</v>
+        <v>0.8533804463317045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7988461427762298</v>
+        <v>0.6186512925849925</v>
       </c>
       <c r="D7" t="n">
-        <v>0.780255102022809</v>
+        <v>0.7428924681106313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9920434320887052</v>
+        <v>0.831734804262879</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03103390076361014</v>
+        <v>0.3475165862742805</v>
       </c>
       <c r="G7" t="n">
-        <v>1.345116769483697</v>
+        <v>2.550080562433493</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7860147585231443</v>
+        <v>0.9196587336170154</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01324036168533019</v>
+        <v>0.347891721263753</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2666563661118412</v>
+        <v>1.045611035754668</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1761644140103504</v>
+        <v>0.5895053742539422</v>
       </c>
       <c r="L7" t="n">
-        <v>1.477154813297012</v>
+        <v>0.8003478418133849</v>
       </c>
       <c r="M7" t="n">
-        <v>0.178938827431206</v>
+        <v>0.5987894946092628</v>
       </c>
       <c r="N7" t="n">
-        <v>136.9453501979854</v>
+        <v>36.11388576966129</v>
       </c>
       <c r="O7" t="n">
-        <v>278.2805227412018</v>
+        <v>73.07846935788712</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9924258080590784</v>
+        <v>0.8532232956632756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7986279245994412</v>
+        <v>0.6182711452148106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7799178034002461</v>
+        <v>0.7426704844727097</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9923310461785586</v>
+        <v>0.8335011377509798</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03152777616102121</v>
+        <v>0.3478890636312003</v>
       </c>
       <c r="G8" t="n">
-        <v>1.346575995436685</v>
+        <v>2.552622609648317</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7872212561383539</v>
+        <v>0.9204527562185102</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0127617489696578</v>
+        <v>0.3442397907809858</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2673510062547021</v>
+        <v>1.035615615955308</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1775606267194988</v>
+        <v>0.5898212132767016</v>
       </c>
       <c r="L8" t="n">
-        <v>1.484748284218981</v>
+        <v>0.8001338494138222</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1803570290948228</v>
+        <v>0.5991103077809075</v>
       </c>
       <c r="N8" t="n">
-        <v>136.9137726776063</v>
+        <v>36.11174326539724</v>
       </c>
       <c r="O8" t="n">
-        <v>278.2489452208226</v>
+        <v>73.07632685362307</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9923039576695396</v>
+        <v>0.8530536533927401</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7983895305255485</v>
+        <v>0.6178865058781674</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7795312631176621</v>
+        <v>0.7424443109632328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9926087446220789</v>
+        <v>0.8352505327457267</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03203498166049598</v>
+        <v>0.3482911484914346</v>
       </c>
       <c r="G9" t="n">
-        <v>1.348170137706509</v>
+        <v>2.555194694663551</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7886038883162636</v>
+        <v>0.9212617657476153</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01229963667794427</v>
+        <v>0.3406228809784172</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2681406208924745</v>
+        <v>1.028294599850746</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1789831882063116</v>
+        <v>0.5901619680150819</v>
       </c>
       <c r="L9" t="n">
-        <v>1.492546709149465</v>
+        <v>0.7999028471730929</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1818019945030132</v>
+        <v>0.5994564290657874</v>
       </c>
       <c r="N9" t="n">
-        <v>136.8818535927493</v>
+        <v>36.10943303078879</v>
       </c>
       <c r="O9" t="n">
-        <v>278.2170261359657</v>
+        <v>73.07401661901461</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9921739334967878</v>
+        <v>0.8528712935569718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7981597873444908</v>
+        <v>0.6174964859587282</v>
       </c>
       <c r="D10" t="n">
-        <v>0.779153837267776</v>
+        <v>0.7422113983832244</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9928725434718728</v>
+        <v>0.836981331192681</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03257621075080887</v>
+        <v>0.3487233764311206</v>
       </c>
       <c r="G10" t="n">
-        <v>1.349706431416112</v>
+        <v>2.557802759660717</v>
       </c>
       <c r="H10" t="n">
-        <v>0.789953918696898</v>
+        <v>0.9220948805412581</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01186065441544296</v>
+        <v>0.3370444199173891</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2688337077999865</v>
+        <v>1.02108334642276</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1804888105972469</v>
+        <v>0.5905280488098094</v>
       </c>
       <c r="L10" t="n">
-        <v>1.500868256205578</v>
+        <v>0.7996545273967275</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1833313289415354</v>
+        <v>0.5998282752670854</v>
       </c>
       <c r="N10" t="n">
-        <v>136.8483459771269</v>
+        <v>36.10695257748611</v>
       </c>
       <c r="O10" t="n">
-        <v>278.1835185203433</v>
+        <v>73.07153616571193</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9920429468003739</v>
+        <v>0.8526761157393653</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7979201858094962</v>
+        <v>0.6171003992276474</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7787441746383008</v>
+        <v>0.7419700123098423</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9931460159020898</v>
+        <v>0.8386928917468074</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03312144637156188</v>
+        <v>0.3491859854569572</v>
       </c>
       <c r="G11" t="n">
-        <v>1.351308647983884</v>
+        <v>2.560451393455267</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7914192581689264</v>
+        <v>0.9229583045293774</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01140557454590538</v>
+        <v>0.3335057335918318</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2696327045420184</v>
+        <v>1.013805174706423</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1819929844020419</v>
+        <v>0.5909196099783431</v>
       </c>
       <c r="L11" t="n">
-        <v>1.509251404776073</v>
+        <v>0.7993887533472208</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1848591919801338</v>
+        <v>0.600226003132606</v>
       </c>
       <c r="N11" t="n">
-        <v>136.8151485595593</v>
+        <v>36.10430117821365</v>
       </c>
       <c r="O11" t="n">
-        <v>278.1503211027758</v>
+        <v>73.06888476643947</v>
       </c>
     </row>
   </sheetData>
